--- a/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/HMP2360_r0_t0_cols.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/manipulate_model/HMP2360_r0_t0_cols.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,318 +31,300 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="104">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>HMP2360_r0_t0_promiscuous</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>bla</t>
-  </si>
-  <si>
-    <t>accoa_c</t>
-  </si>
-  <si>
-    <t>sam_c</t>
-  </si>
-  <si>
-    <t>pterin1_c</t>
-  </si>
-  <si>
-    <t>trp_v</t>
-  </si>
-  <si>
-    <t>fivehtp_c</t>
-  </si>
-  <si>
-    <t>trp_c</t>
-  </si>
-  <si>
-    <t>srtn_c</t>
-  </si>
-  <si>
-    <t>nactsertn_c</t>
-  </si>
-  <si>
-    <t>meltn_c</t>
-  </si>
-  <si>
-    <t>tryptm_c</t>
-  </si>
-  <si>
-    <t>nactryptm_c</t>
-  </si>
-  <si>
-    <t>coa_c</t>
-  </si>
-  <si>
-    <t>sah_c</t>
-  </si>
-  <si>
-    <t>pterin2_c</t>
-  </si>
-  <si>
-    <t>fivehtp_e</t>
-  </si>
-  <si>
-    <t>trp_e</t>
-  </si>
-  <si>
-    <t>nactsertn_e</t>
-  </si>
-  <si>
-    <t>nactryptm_e</t>
-  </si>
-  <si>
-    <t>meltn_e</t>
-  </si>
-  <si>
-    <t>srtn_e</t>
-  </si>
-  <si>
-    <t>TPH</t>
-  </si>
-  <si>
-    <t>DDC</t>
-  </si>
-  <si>
-    <t>AANAT</t>
-  </si>
-  <si>
-    <t>ASMT</t>
-  </si>
-  <si>
-    <t>DDC_tryptm</t>
-  </si>
-  <si>
-    <t>AANAT_tryptm</t>
-  </si>
-  <si>
-    <t>IN_trp</t>
-  </si>
-  <si>
-    <t>EX_trp</t>
-  </si>
-  <si>
-    <t>EX_fivehtp</t>
-  </si>
-  <si>
-    <t>EX_nactsertn</t>
-  </si>
-  <si>
-    <t>EX_meltn</t>
-  </si>
-  <si>
-    <t>EX_nactryptm</t>
-  </si>
-  <si>
-    <t>EX_srtn</t>
-  </si>
-  <si>
-    <t>Acetyl-coa</t>
-  </si>
-  <si>
-    <t>S-adenosyl-methionine</t>
-  </si>
-  <si>
-    <t>tetrahydropterin</t>
-  </si>
-  <si>
-    <t>tryptophan produced by the cell</t>
-  </si>
-  <si>
-    <t>5-hydroxytryptophan</t>
-  </si>
-  <si>
-    <t>tryptophan</t>
-  </si>
-  <si>
-    <t>serotonin</t>
-  </si>
-  <si>
-    <t>N-acetylserotonin</t>
-  </si>
-  <si>
-    <t>melatonin</t>
-  </si>
-  <si>
-    <t>tryptamine</t>
-  </si>
-  <si>
-    <t>N-acetyltryptamine</t>
-  </si>
-  <si>
-    <t>coa</t>
-  </si>
-  <si>
-    <t>S-adenosyl-homocysteine</t>
-  </si>
-  <si>
-    <t>pterin-4a-carbinolamin</t>
-  </si>
-  <si>
-    <t>5-hydroxytryptophan external</t>
-  </si>
-  <si>
-    <t>tryptophan external</t>
-  </si>
-  <si>
-    <t>N-acetylserotonin external</t>
-  </si>
-  <si>
-    <t>N-acetyltryptamine external</t>
-  </si>
-  <si>
-    <t>melatonin external</t>
-  </si>
-  <si>
-    <t>serotonin external</t>
-  </si>
-  <si>
-    <t>tryptophan hydroxylase</t>
-  </si>
-  <si>
-    <t>tryptophan decarboxylase</t>
-  </si>
-  <si>
-    <t>aralkylamine N-acetyltransferase</t>
-  </si>
-  <si>
-    <t>acetylserotonin methyltransferase</t>
-  </si>
-  <si>
-    <t>production of tryptophan by the cell</t>
-  </si>
-  <si>
-    <t>exchange tryptophan</t>
-  </si>
-  <si>
-    <t>Exchange 5-hydroxytryptophan</t>
-  </si>
-  <si>
-    <t>exchange n-acetylserotonin</t>
-  </si>
-  <si>
-    <t>exchange melatonin</t>
-  </si>
-  <si>
-    <t>exchange n-acetyltryptamin</t>
-  </si>
-  <si>
-    <t>exchange serotonin</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>pterin1_c trp_c trp_c fivehtp_c pterin2_c</t>
-  </si>
-  <si>
-    <t>putative homotetramer (metacyc). From pdb, might actually be a monomer. Tryptophan is substate inhibitor</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>fivehtp_c trp_c srtn_c tryptm_c</t>
-  </si>
-  <si>
-    <t>DDC DDC_tryptm</t>
-  </si>
-  <si>
-    <t>homodimer (metacyc), inhib by serotonin</t>
-  </si>
-  <si>
-    <t>AANATCompInhibIndep</t>
-  </si>
-  <si>
-    <t>accoa_c srtn_c accoa_c tryptm_c meltn_c nactsertn_c nactryptm_c coa_c coa_c</t>
-  </si>
-  <si>
-    <t>AANAT AANAT_tryptm</t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc)</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>sam_c nactsertn_c meltn_c sah_c</t>
-  </si>
-  <si>
-    <t>ASMT has a C-terminal domain similar to other SAM-dependent O-methyltransferases, and an N-terminal domain which intertwines with another monomer to form the physiologically active dimer  (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>Modeled as mass action</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="98">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMP2360_r0_t0_promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accoa_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sam_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin1_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trp_v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fivehtp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srtn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nactsertn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meltn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptm_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nactryptm_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coa_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sah_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fivehtp_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trp_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nactsertn_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nactryptm_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meltn_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srtn_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDC_tryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANAT_tryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN_trp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_trp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_fivehtp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_nactsertn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_meltn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_nactryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_srtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetyl-coa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-adenosyl-methionine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tetrahydropterin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan produced by the cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-hydroxytryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetylserotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melatonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetyltryptamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-adenosyl-homocysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin-4a-carbinolamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-hydroxytryptophan external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetylserotonin external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetyltryptamine external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melatonin external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serotonin external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan hydroxylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan decarboxylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aralkylamine N-acetyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acetylserotonin methyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production of tryptophan by the cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange tryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange 5-hydroxytryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange n-acetylserotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange melatonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange n-acetyltryptamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange serotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterin1_c trp_c trp_c fivehtp_c pterin2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fivehtp_c trp_c srtn_c tryptm_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDC DDC_tryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANATCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accoa_c srtn_c accoa_c tryptm_c meltn_c nactsertn_c nactryptm_c coa_c coa_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AANAT AANAT_tryptm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sam_c nactsertn_c meltn_c sah_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -351,7 +332,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -462,13 +443,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E1 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L16 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,7 +561,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -593,15 +574,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L16 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,116 +598,193 @@
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-81.4547774583559</v>
+        <v>0.938105540546311</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4.0829462385141</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>-81.4547774583559</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>4.0829462385141</v>
+        <v>1.06189445945369</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.431738943043251</v>
+        <v>0.948692986021061</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1.21410377655987E-010</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.431738943043251</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1.21410377655987E-010</v>
+        <v>1.05130701397894</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-0.567354685137039</v>
+        <v>0.963822080137339</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1.84127891703472E-008</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-0.567354685137039</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1.84127891703472E-008</v>
+        <v>1.03617791986266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>85.3794767878033</v>
+        <v>0.781513345189378</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1.65622684914216E-005</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>85.3794767878033</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1.65622684914216E-005</v>
+        <v>1.21848665481062</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.103545682502924</v>
+        <v>0.99</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2.35376773094737E-010</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.103545682502924</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.35376773094737E-010</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>7.99594430470695E-007</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>7.99594430470695E-007</v>
+      <c r="B14" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -739,15 +797,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="E1 D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L16 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,63 +824,63 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.938105540546311</v>
+        <v>0.600926593306472</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.06189445945369</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.39907340669353</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.948692986021061</v>
+        <v>0.99</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.05130701397894</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.963822080137339</v>
+        <v>0.99</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.03617791986266</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.781513345189378</v>
+        <v>0.99</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.21848665481062</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -834,107 +892,107 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.99</v>
+        <v>0.897059063218122</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.10294093678188</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.99</v>
+        <v>0.879431204670374</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.12056879532963</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.99</v>
+        <v>0.851303699101255</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.14869630089874</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.99</v>
+        <v>0.913109189061105</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.0868908109389</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.99</v>
+        <v>0.965053927008861</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.03494607299114</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.99</v>
+        <v>0.622035526990772</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.37796447300923</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.99</v>
+        <v>0.799696511562971</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.20030348843703</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -944,12 +1002,110 @@
       </c>
       <c r="D14" s="0" t="n">
         <v>1.01</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.771228436522274</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1.22877156347773</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.967924985045021</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1.03207501495498</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.994407168746068</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1.00559283125393</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.989083174460458</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1.01091682553954</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -962,15 +1118,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="E1 D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,631 +1142,276 @@
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.600926593306472</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1.39907340669353</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1.01</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1.01</v>
+        <v>41</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1.01</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1.01</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.897059063218122</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1.10294093678188</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.879431204670374</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1.12056879532963</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.851303699101255</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1.14869630089874</v>
+        <v>46</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.913109189061105</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1.0868908109389</v>
+        <v>47</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.965053927008861</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1.03494607299114</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.622035526990772</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1.37796447300923</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.799696511562971</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1.20030348843703</v>
+        <v>50</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.771228436522274</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1.22877156347773</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.967924985045021</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1.03207501495498</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.994407168746068</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1.00559283125393</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.989083174460458</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1.01091682553954</v>
-      </c>
-    </row>
+        <v>51</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="1" sqref="E1 M1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1625,13 +1426,13 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E1 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L16 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,7 +2348,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2560,15 +2361,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L16 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,12 +2383,6 @@
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -2598,12 +2394,6 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -2615,12 +2405,6 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -2632,12 +2416,6 @@
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -2649,12 +2427,6 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -2666,12 +2438,6 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -2683,12 +2449,6 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -2700,12 +2460,6 @@
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -2717,12 +2471,6 @@
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -2734,12 +2482,6 @@
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -2751,12 +2493,6 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -2768,12 +2504,6 @@
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -2785,12 +2515,6 @@
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -2802,12 +2526,6 @@
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -2819,12 +2537,6 @@
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -2836,12 +2548,6 @@
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -2853,12 +2559,6 @@
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -2870,12 +2570,6 @@
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -2887,12 +2581,6 @@
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -2904,12 +2592,6 @@
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -2921,17 +2603,11 @@
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2944,15 +2620,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L16 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,11 +2645,8 @@
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -2982,11 +2656,8 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -2996,11 +2667,8 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -3010,11 +2678,8 @@
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -3024,11 +2689,8 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -3038,11 +2700,8 @@
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -3052,11 +2711,8 @@
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -3066,11 +2722,8 @@
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -3080,11 +2733,8 @@
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -3094,11 +2744,8 @@
       <c r="C10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,11 +2755,8 @@
       <c r="C11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -3122,11 +2766,8 @@
       <c r="C12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -3136,11 +2777,8 @@
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -3149,15 +2787,12 @@
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3170,15 +2805,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E1 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L16 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,73 +2823,108 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3269,13 +2939,13 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E1 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L16 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,7 +3056,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3399,126 +3069,175 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E1 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="L2:L16 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>-37.2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>-50</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-17.8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-23.24</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-13.24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-43.2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-24.6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>-40</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>-30</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3531,15 +3250,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="E1 C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="L2:L16 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,151 +3274,228 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-60</v>
+        <v>0.000228462011808056</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>-40</v>
+        <v>0.000531903777800262</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-37.2</v>
+        <v>1E-012</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>-15</v>
+        <v>1E-008</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-50</v>
+        <v>1E-012</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-17.8</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-23.24</v>
+        <v>1E-012</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>-13.24</v>
+        <v>1E-008</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-43.2</v>
+        <v>1E-012</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>1E-008</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-24.6</v>
+        <v>0.00559675402823174</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5</v>
+        <v>0.00688125161869604</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-40</v>
+        <v>1E-012</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>1E-008</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-10</v>
+        <v>0.00310804602125163</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>40</v>
+        <v>0.00419380412819064</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-10</v>
+        <v>0.0308279171448426</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>5</v>
+        <v>0.036695041804987</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-10</v>
+        <v>0.00181042853161852</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>30</v>
+        <v>0.00194154528238348</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-10</v>
+        <v>8.28736361429022E-005</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>5</v>
+        <v>0.000183585858683128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-10</v>
+        <v>0.00604381725975038</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>5</v>
+        <v>0.00907146002947528</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-30</v>
+        <v>1E-012</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>5</v>
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1E-008</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>9.44630572239322E-006</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.50504718212092E-005</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>5.16846874940607E-006</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5.51101329571475E-006</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.000856570953217132</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.000866206154870804</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.00016291524956886</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.000166511544406742</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3712,15 +3508,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="E1 C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L16 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,230 +3531,76 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.000228462011808056</v>
+        <v>-81.4547774583559</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.000531903777800262</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.0829462385141</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1E-012</v>
+        <v>0.431738943043251</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.21410377655987E-010</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1E-012</v>
+        <v>-0.567354685137039</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.84127891703472E-008</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1E-012</v>
+        <v>85.3794767878033</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.65622684914216E-005</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1E-012</v>
+        <v>0.103545682502924</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.35376773094737E-010</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.00559675402823174</v>
+        <v>18.5183721041727</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.00688125161869604</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.00310804602125163</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.00419380412819064</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.0308279171448426</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.036695041804987</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.00181042853161852</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.00194154528238348</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>8.28736361429022E-005</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.000183585858683128</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.00604381725975038</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.00907146002947528</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1E-008</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>9.44630572239322E-006</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1.50504718212092E-005</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>5.16846874940607E-006</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>5.51101329571475E-006</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.000856570953217132</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0.000866206154870804</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.00016291524956886</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0.000166511544406742</v>
+        <v>7.99594430470695E-007</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
